--- a/atalhos.xlsx
+++ b/atalhos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Henrique\Google Drive\Trabalhos\Atalhos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\dev\custom-config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286ED9EF-5267-4CBD-AF02-48EACE4C4816}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05859145-7940-4A22-B42D-A6E269292D97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41235" yWindow="465" windowWidth="38400" windowHeight="21135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comandos" sheetId="12" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="307">
   <si>
     <t>CTRL</t>
   </si>
@@ -1161,6 +1161,9 @@
   </si>
   <si>
     <t>fold unfold</t>
+  </si>
+  <si>
+    <t>ctrl+5 excel strikethrough shortcut</t>
   </si>
 </sst>
 </file>
@@ -1410,11 +1413,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2112,9 +2115,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FF4D0F8A-6C38-4744-9A39-D77C2A8AB922}" name="Table79" displayName="Table79" ref="A1:N132" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:N132" xr:uid="{03B76A93-9629-754A-916C-0A2551870EA8}"/>
-  <sortState ref="A2:N132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FF4D0F8A-6C38-4744-9A39-D77C2A8AB922}" name="Table79" displayName="Table79" ref="A1:N133" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:N133" xr:uid="{03B76A93-9629-754A-916C-0A2551870EA8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N132">
     <sortCondition ref="C1:C132"/>
   </sortState>
   <tableColumns count="14">
@@ -2166,7 +2169,7 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B6396743-C9FE-764E-B978-77DD9E620341}" name="Tabela10" displayName="Tabela10" ref="A2:G19" totalsRowShown="0">
   <autoFilter ref="A2:G19" xr:uid="{37717B71-62A0-2A44-8C79-3C28BB0D5048}"/>
-  <sortState ref="A3:G19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G19">
     <sortCondition ref="B2:B19"/>
   </sortState>
   <tableColumns count="7">
@@ -2499,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF65085-BDB2-F149-AA4C-512AD051FA7D}">
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5069,7 +5072,7 @@
         <v>Home/End + ALT</v>
       </c>
       <c r="D74" s="12"/>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="34" t="s">
         <v>258</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -7235,6 +7238,35 @@
         <v>8</v>
       </c>
       <c r="N132" s="5"/>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="10"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="22" t="str">
+        <f xml:space="preserve">
+    IF(
+        AND(Table79[[#This Row],[Controle]]="",Table79[[#This Row],[Teclas]]=""),
+        "",
+        IF(
+            Table79[[#This Row],[Controle]]&lt;&gt;"",
+            Table79[[#This Row],[Teclas]] &amp; " + " &amp; Table79[[#This Row],[Controle]],
+            Table79[[#This Row],[Teclas]]
+        ))</f>
+        <v/>
+      </c>
+      <c r="D133" s="12"/>
+      <c r="E133" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="F133" s="9"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E49:E132 E41:E46 E2:E38">
@@ -7543,14 +7575,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
